--- a/data/trans_orig/P1203-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1203-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>417113</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>386460</v>
+        <v>385881</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>446318</v>
+        <v>447776</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4042882421255992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.374577741158646</v>
+        <v>0.3740156251654096</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.432594374603525</v>
+        <v>0.4340079748801793</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>439</v>
@@ -765,19 +765,19 @@
         <v>442039</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>409617</v>
+        <v>411902</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>479001</v>
+        <v>477093</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3361224837330832</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3114691673337948</v>
+        <v>0.3132062263778555</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3642280927435103</v>
+        <v>0.3627771580149309</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>859</v>
@@ -786,19 +786,19 @@
         <v>859152</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>815945</v>
+        <v>808949</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>903012</v>
+        <v>908066</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3660897186231076</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3476787163662577</v>
+        <v>0.344697717419687</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3847787706689441</v>
+        <v>0.3869323798363969</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>277908</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251614</v>
+        <v>248561</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>305784</v>
+        <v>309676</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2693625711615947</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2438773819002904</v>
+        <v>0.2409181177818882</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2963820948888774</v>
+        <v>0.3001538841590746</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>354</v>
@@ -836,19 +836,19 @@
         <v>360587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>326541</v>
+        <v>327978</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>391602</v>
+        <v>393433</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2741870847056728</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2482985238993461</v>
+        <v>0.2493918497954071</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2977706346228536</v>
+        <v>0.2991632567352937</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>636</v>
@@ -857,19 +857,19 @@
         <v>638494</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>598132</v>
+        <v>598145</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>679669</v>
+        <v>682462</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2720661176099504</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2548675702427311</v>
+        <v>0.2548730393051516</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2896108846977156</v>
+        <v>0.2908009295381252</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>243027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>217287</v>
+        <v>216448</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>271265</v>
+        <v>272500</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2355542353060456</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2106059305697767</v>
+        <v>0.2097928553463449</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2629245248279392</v>
+        <v>0.2641210277609384</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>352</v>
@@ -907,19 +907,19 @@
         <v>360745</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>331570</v>
+        <v>331945</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>394919</v>
+        <v>395211</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2743073937423767</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2521227932852481</v>
+        <v>0.2524079850451233</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.300292561953199</v>
+        <v>0.3005150988490924</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>593</v>
@@ -928,19 +928,19 @@
         <v>603772</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>566648</v>
+        <v>559080</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>648636</v>
+        <v>646725</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2572706141483662</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2414519602179603</v>
+        <v>0.2382270329129698</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2763876919782092</v>
+        <v>0.2755732065657653</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>69743</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55770</v>
+        <v>54071</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87067</v>
+        <v>85951</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06759876153931665</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05405522002628381</v>
+        <v>0.05240854358980359</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08439025884287818</v>
+        <v>0.08330812454266615</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>99</v>
@@ -978,19 +978,19 @@
         <v>103410</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85465</v>
+        <v>85286</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124662</v>
+        <v>124336</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07863224999149025</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06498686969597556</v>
+        <v>0.06485071457243433</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09479184964317394</v>
+        <v>0.09454370701259349</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>170</v>
@@ -999,19 +999,19 @@
         <v>173153</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>148450</v>
+        <v>148617</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>199438</v>
+        <v>199779</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07378167474814401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06325545274614436</v>
+        <v>0.06332646885384388</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08498173574674855</v>
+        <v>0.08512695748328775</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>15666</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9442</v>
+        <v>9312</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24819</v>
+        <v>24326</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01518475143873045</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009151457175092444</v>
+        <v>0.009025978725625373</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02405601650386012</v>
+        <v>0.02357814998780372</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -1049,19 +1049,19 @@
         <v>25828</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17227</v>
+        <v>16558</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37647</v>
+        <v>37399</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01963946274517657</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01309942870032227</v>
+        <v>0.01259048441728769</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02862643938843247</v>
+        <v>0.02843806611074023</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>42</v>
@@ -1070,19 +1070,19 @@
         <v>41495</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30953</v>
+        <v>30125</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>55708</v>
+        <v>53901</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01768106921687725</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01318917888553652</v>
+        <v>0.01283664565312905</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0237375624182547</v>
+        <v>0.02296740365519302</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>8266</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3632</v>
+        <v>4062</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16263</v>
+        <v>16784</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.008011438428713427</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.003520370548382655</v>
+        <v>0.003937033970052956</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01576303299205635</v>
+        <v>0.01626746444788605</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -1120,19 +1120,19 @@
         <v>22503</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14328</v>
+        <v>13854</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>33278</v>
+        <v>33443</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01711132508220052</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0108951033796068</v>
+        <v>0.01053415274819373</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02530449629773689</v>
+        <v>0.02542940696833607</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>29</v>
@@ -1141,19 +1141,19 @@
         <v>30769</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20995</v>
+        <v>21178</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>44002</v>
+        <v>43292</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01311080565355456</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008946261379526733</v>
+        <v>0.009024273946344042</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01874937594351471</v>
+        <v>0.01844690006899498</v>
       </c>
     </row>
     <row r="10">
@@ -1245,19 +1245,19 @@
         <v>1082048</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1038972</v>
+        <v>1040028</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1120548</v>
+        <v>1120873</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6389748867520033</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6135375566634297</v>
+        <v>0.6141609105914611</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6617100790011671</v>
+        <v>0.6619014470824482</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>801</v>
@@ -1266,19 +1266,19 @@
         <v>812296</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>771702</v>
+        <v>774792</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>848590</v>
+        <v>852819</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.511626708147331</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4860586184945973</v>
+        <v>0.4880048348335906</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5344868869239399</v>
+        <v>0.5371505928642802</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1862</v>
@@ -1287,19 +1287,19 @@
         <v>1894344</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1836573</v>
+        <v>1839119</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1952060</v>
+        <v>1952683</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5773528215286837</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5597453669447949</v>
+        <v>0.5605213307568411</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5949433996364385</v>
+        <v>0.5951330485975153</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>364311</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>327935</v>
+        <v>330781</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>398829</v>
+        <v>396505</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2151342577206899</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1936531176041374</v>
+        <v>0.1953338882103968</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2355181019893861</v>
+        <v>0.234145458580003</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>379</v>
@@ -1337,19 +1337,19 @@
         <v>388243</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>353399</v>
+        <v>356160</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>423738</v>
+        <v>424080</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2445358148370394</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2225890471571747</v>
+        <v>0.2243280799304787</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2668923649147752</v>
+        <v>0.2671080356663832</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>725</v>
@@ -1358,19 +1358,19 @@
         <v>752554</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>707588</v>
+        <v>700701</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>803787</v>
+        <v>797512</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2293612744722618</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2156566356927183</v>
+        <v>0.2135575771681926</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.244975869347293</v>
+        <v>0.2430634008493846</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>189459</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>165793</v>
+        <v>163936</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>215759</v>
+        <v>217635</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.111879982830256</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09790439058916324</v>
+        <v>0.09680778900047814</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1274108439462489</v>
+        <v>0.12851869460808</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>274</v>
@@ -1408,19 +1408,19 @@
         <v>284524</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>255286</v>
+        <v>254559</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>315223</v>
+        <v>316211</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1792081652604145</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1607925559456673</v>
+        <v>0.1603348662153593</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1985440941407146</v>
+        <v>0.1991661490619703</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>462</v>
@@ -1429,19 +1429,19 @@
         <v>473983</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>433474</v>
+        <v>434374</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>513851</v>
+        <v>515107</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1444591817990787</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1321129902232979</v>
+        <v>0.1323873781376103</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1566100997337245</v>
+        <v>0.1569928637533167</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>39218</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28341</v>
+        <v>28027</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53163</v>
+        <v>55503</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02315921320283863</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01673584596827469</v>
+        <v>0.01655084511348106</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03139407527488282</v>
+        <v>0.03277574296910844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -1479,19 +1479,19 @@
         <v>61003</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47339</v>
+        <v>48030</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76021</v>
+        <v>78536</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03842297960405196</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02981649259384484</v>
+        <v>0.03025177935582622</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04788200624366936</v>
+        <v>0.0494662485252633</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>97</v>
@@ -1500,19 +1500,19 @@
         <v>100221</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>81702</v>
+        <v>82098</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>123344</v>
+        <v>121913</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03054514379905819</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02490084672268363</v>
+        <v>0.0250215599825121</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03759241799400139</v>
+        <v>0.03715626208542962</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>11799</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5603</v>
+        <v>6194</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19634</v>
+        <v>21479</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.006967501597718894</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003308808187370118</v>
+        <v>0.003657894573894866</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0115943772293945</v>
+        <v>0.01268371053082592</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>22</v>
@@ -1550,19 +1550,19 @@
         <v>22344</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14755</v>
+        <v>13873</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>33360</v>
+        <v>32643</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01407329909106269</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.009293446210416733</v>
+        <v>0.008737931755202197</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02101209420884414</v>
+        <v>0.02056028966748526</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>33</v>
@@ -1571,19 +1571,19 @@
         <v>34143</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>24092</v>
+        <v>24003</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>47104</v>
+        <v>46768</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01040590112094904</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.007342560251267741</v>
+        <v>0.007315552199713768</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0143561103354579</v>
+        <v>0.01425373533825863</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>6577</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2791</v>
+        <v>2797</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13610</v>
+        <v>12701</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003884157896493306</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001647982926218159</v>
+        <v>0.001651935941119261</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0080371739322343</v>
+        <v>0.007500231355601086</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1621,19 +1621,19 @@
         <v>19263</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11977</v>
+        <v>10809</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30946</v>
+        <v>29721</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01213303306010047</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007543542806312227</v>
+        <v>0.006807763694643159</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01949165345942213</v>
+        <v>0.0187201037697108</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1642,19 +1642,19 @@
         <v>25841</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17062</v>
+        <v>17156</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37435</v>
+        <v>38242</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007875677279968589</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00520016451834049</v>
+        <v>0.005228649068653115</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01140918019848067</v>
+        <v>0.01165536710869677</v>
       </c>
     </row>
     <row r="17">
@@ -1746,19 +1746,19 @@
         <v>338153</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>313963</v>
+        <v>313118</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>361051</v>
+        <v>362830</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6132533789047836</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5693840813143991</v>
+        <v>0.5678510142671832</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6547794672489894</v>
+        <v>0.6580072852087849</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>237</v>
@@ -1767,19 +1767,19 @@
         <v>248490</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>227027</v>
+        <v>227170</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>269783</v>
+        <v>270561</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5215865194038114</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4765360256026804</v>
+        <v>0.4768359659466858</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5662813904695088</v>
+        <v>0.5679148649566271</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>562</v>
@@ -1788,19 +1788,19 @@
         <v>586643</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>552755</v>
+        <v>553653</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>617760</v>
+        <v>619660</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5707642497440668</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5377937533952004</v>
+        <v>0.5386672404514903</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6010394126946489</v>
+        <v>0.6028878724793494</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>134104</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114545</v>
+        <v>113241</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>156107</v>
+        <v>155033</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2432033679923641</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2077314411657769</v>
+        <v>0.2053676251701868</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2831063206735168</v>
+        <v>0.2811580685832256</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>99</v>
@@ -1838,19 +1838,19 @@
         <v>107156</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>89980</v>
+        <v>89596</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>128183</v>
+        <v>128818</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2249231052768278</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1888707119789498</v>
+        <v>0.1880643912386558</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2690584533696856</v>
+        <v>0.2703921942229817</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>228</v>
@@ -1859,19 +1859,19 @@
         <v>241260</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>216325</v>
+        <v>213839</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>270907</v>
+        <v>271269</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2347301591594159</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2104695554001463</v>
+        <v>0.208051038752272</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2635747166811948</v>
+        <v>0.2639266543428213</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>64375</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50062</v>
+        <v>49983</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>81589</v>
+        <v>81575</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1167465049851287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09078861000392321</v>
+        <v>0.09064661468640531</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1479642219679132</v>
+        <v>0.147939809173112</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>85</v>
@@ -1909,19 +1909,19 @@
         <v>88592</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>72577</v>
+        <v>71593</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>106773</v>
+        <v>105129</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1859564516670483</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1523401461457713</v>
+        <v>0.1502757609407215</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2241200124161165</v>
+        <v>0.2206686280977226</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>145</v>
@@ -1930,19 +1930,19 @@
         <v>152967</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>132066</v>
+        <v>128585</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>178327</v>
+        <v>177738</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1488264778322754</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1284910564537645</v>
+        <v>0.1251042609645395</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1735000890745271</v>
+        <v>0.1729275034046333</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>7496</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2913</v>
+        <v>3016</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14526</v>
+        <v>14653</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01359388841623108</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005283487808693842</v>
+        <v>0.005469810163863881</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02634415133843608</v>
+        <v>0.02657429037451229</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -1980,19 +1980,19 @@
         <v>15178</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8907</v>
+        <v>9052</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24077</v>
+        <v>24134</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03185863515739121</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01869682440967043</v>
+        <v>0.0190011987675043</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05053807379659385</v>
+        <v>0.05065747253841282</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -2001,19 +2001,19 @@
         <v>22674</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14512</v>
+        <v>15065</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33676</v>
+        <v>33530</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02205990533442497</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01411954807557621</v>
+        <v>0.0146577088246376</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03276460775626308</v>
+        <v>0.03262196870006755</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>5443</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1761</v>
+        <v>1777</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14307</v>
+        <v>14602</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009871938730006038</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003193441286649733</v>
+        <v>0.003222480361616688</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02594717786106053</v>
+        <v>0.02648218282166634</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2051,19 +2051,19 @@
         <v>10804</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5056</v>
+        <v>5942</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18854</v>
+        <v>20027</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02267712164813742</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01061287048421301</v>
+        <v>0.01247250557619196</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03957579505261951</v>
+        <v>0.04203806579831977</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -2072,19 +2072,19 @@
         <v>16247</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8581</v>
+        <v>8699</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26995</v>
+        <v>26836</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01580735610872967</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008349011511134388</v>
+        <v>0.008463724395769631</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02626476895660269</v>
+        <v>0.026110042942518</v>
       </c>
     </row>
     <row r="23">
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6309</v>
+        <v>6016</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003330920971486464</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01144144246615902</v>
+        <v>0.01090953696901678</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -2122,19 +2122,19 @@
         <v>6192</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2196</v>
+        <v>2039</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13177</v>
+        <v>12559</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01299816684678395</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00460926683871519</v>
+        <v>0.004280866752122765</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02765850504067265</v>
+        <v>0.02636223800328337</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -2143,19 +2143,19 @@
         <v>8029</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3779</v>
+        <v>3897</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>15241</v>
+        <v>15214</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007811851821087181</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003676772011125618</v>
+        <v>0.003791673109312825</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01482871484068877</v>
+        <v>0.01480198647467576</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>1837314</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1779416</v>
+        <v>1780177</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1892916</v>
+        <v>1891990</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5607477467814201</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5430773589377383</v>
+        <v>0.5433096266770356</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5777174063649682</v>
+        <v>0.5774349291579618</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1477</v>
@@ -2268,19 +2268,19 @@
         <v>1502825</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1445003</v>
+        <v>1444740</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1563002</v>
+        <v>1560082</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4447283206564175</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4276173997091516</v>
+        <v>0.4275395147549734</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.462536562085221</v>
+        <v>0.4616723936434191</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3283</v>
@@ -2289,19 +2289,19 @@
         <v>3340139</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3256695</v>
+        <v>3257047</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3431805</v>
+        <v>3420696</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.501843328129618</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4893061069805331</v>
+        <v>0.4893589692811431</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5156157956957801</v>
+        <v>0.5139466929335255</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>776323</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>729985</v>
+        <v>729399</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>830359</v>
+        <v>827243</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2369334869646692</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.222791333518463</v>
+        <v>0.2226122320599005</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2534252283065397</v>
+        <v>0.2524744021005132</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>832</v>
@@ -2339,19 +2339,19 @@
         <v>855986</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>807748</v>
+        <v>804884</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>904536</v>
+        <v>908798</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2533103946256393</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2390354385858886</v>
+        <v>0.238187983059292</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2676777628303952</v>
+        <v>0.2689389278762157</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1589</v>
@@ -2360,19 +2360,19 @@
         <v>1632309</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1563161</v>
+        <v>1563836</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1707712</v>
+        <v>1705973</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2452482343936413</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2348590921393613</v>
+        <v>0.2349604811900392</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2565773235174501</v>
+        <v>0.2563160496996108</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>496861</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>455062</v>
+        <v>456386</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>539650</v>
+        <v>538843</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1516417000374873</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.138884932855903</v>
+        <v>0.1392887631432594</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1647009794185063</v>
+        <v>0.1644545818767248</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>711</v>
@@ -2410,19 +2410,19 @@
         <v>733861</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>684252</v>
+        <v>686415</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>775832</v>
+        <v>783527</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2171701858730077</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2024895543262124</v>
+        <v>0.2031297556904628</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2295905086164817</v>
+        <v>0.2318676840911357</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1200</v>
@@ -2431,19 +2431,19 @@
         <v>1230722</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1168894</v>
+        <v>1172549</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1296626</v>
+        <v>1301247</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1849112781779221</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1756219504246559</v>
+        <v>0.1761710887972264</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1948131647535263</v>
+        <v>0.1955075309624647</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>116457</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>97442</v>
+        <v>94805</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>140483</v>
+        <v>139289</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03554266027457679</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02973927057759441</v>
+        <v>0.02893443434445727</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04287522179793309</v>
+        <v>0.04251081948619388</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>175</v>
@@ -2481,19 +2481,19 @@
         <v>179591</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>157781</v>
+        <v>153175</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>208404</v>
+        <v>206837</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05314611781388203</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04669199689258483</v>
+        <v>0.04532888903001359</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06167253322622487</v>
+        <v>0.06120895778365723</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>289</v>
@@ -2502,19 +2502,19 @@
         <v>296048</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>263562</v>
+        <v>262968</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>328248</v>
+        <v>333421</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04448014141241013</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03959917839457693</v>
+        <v>0.03951001692203587</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04931809622258435</v>
+        <v>0.05009518786625515</v>
       </c>
     </row>
     <row r="29">
@@ -2531,19 +2531,19 @@
         <v>32909</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23311</v>
+        <v>22148</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47646</v>
+        <v>46033</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01004374779521033</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007114432042143282</v>
+        <v>0.006759459552428291</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01454140838496306</v>
+        <v>0.01404930845018056</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>58</v>
@@ -2552,19 +2552,19 @@
         <v>58976</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>45031</v>
+        <v>45089</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>74753</v>
+        <v>75286</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01745253153660269</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01332600926887022</v>
+        <v>0.01334323513822688</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02212164258406391</v>
+        <v>0.02227916834493234</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>89</v>
@@ -2573,19 +2573,19 @@
         <v>91884</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>73400</v>
+        <v>72323</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>112380</v>
+        <v>111556</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01380527389286091</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01102800862028068</v>
+        <v>0.0108661884706436</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01688472170635629</v>
+        <v>0.0167608544169068</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>16680</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10087</v>
+        <v>10307</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26696</v>
+        <v>27196</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.005090658146636333</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003078545051530508</v>
+        <v>0.003145608617708306</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.008147485820598856</v>
+        <v>0.008300252899360587</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>44</v>
@@ -2623,19 +2623,19 @@
         <v>47959</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>35201</v>
+        <v>34750</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>64054</v>
+        <v>64902</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01419244949445087</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0104170937340719</v>
+        <v>0.01028336269325003</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01895526888708713</v>
+        <v>0.01920641765581107</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>61</v>
@@ -2644,19 +2644,19 @@
         <v>64639</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>49522</v>
+        <v>49422</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>81838</v>
+        <v>83099</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.009711743993547611</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.007440519520580186</v>
+        <v>0.007425451718850605</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01229585539557421</v>
+        <v>0.01248533398568824</v>
       </c>
     </row>
     <row r="31">
@@ -2987,19 +2987,19 @@
         <v>305475</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>275708</v>
+        <v>277072</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>336362</v>
+        <v>333861</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3140986571375528</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2834909907751674</v>
+        <v>0.2848930164264001</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3458569981534751</v>
+        <v>0.3432859927575869</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>279</v>
@@ -3008,19 +3008,19 @@
         <v>306189</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>276106</v>
+        <v>276588</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>338787</v>
+        <v>340200</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.229038404337372</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2065350607540635</v>
+        <v>0.2068960346697722</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.253422785352267</v>
+        <v>0.2544795856272152</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>568</v>
@@ -3029,19 +3029,19 @@
         <v>611664</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>567405</v>
+        <v>566962</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>657635</v>
+        <v>655492</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2648595281654453</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2456944023023131</v>
+        <v>0.2455027348306431</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2847653768617565</v>
+        <v>0.2838375266052216</v>
       </c>
     </row>
     <row r="5">
@@ -3058,19 +3058,19 @@
         <v>304410</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>275151</v>
+        <v>276001</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>334230</v>
+        <v>336695</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.313002994888357</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2829185663517129</v>
+        <v>0.2837922763530965</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.343664821887797</v>
+        <v>0.3461996565544168</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>351</v>
@@ -3079,19 +3079,19 @@
         <v>373728</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>340418</v>
+        <v>339280</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>407914</v>
+        <v>408355</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2795597133551548</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2546424352701313</v>
+        <v>0.2537912179105694</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3051312794339114</v>
+        <v>0.3054613079248505</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>635</v>
@@ -3100,19 +3100,19 @@
         <v>678138</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>629706</v>
+        <v>640314</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>721199</v>
+        <v>723442</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2936435643852261</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2726716054022546</v>
+        <v>0.2772650988301345</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3122894040959785</v>
+        <v>0.3132608340477027</v>
       </c>
     </row>
     <row r="6">
@@ -3129,19 +3129,19 @@
         <v>228237</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>200280</v>
+        <v>200460</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>256679</v>
+        <v>255948</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2346801774687398</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2059339121271805</v>
+        <v>0.2061187837756939</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2639244789235748</v>
+        <v>0.2631735206789076</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>381</v>
@@ -3150,19 +3150,19 @@
         <v>404619</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>371468</v>
+        <v>372421</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>442337</v>
+        <v>439054</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3026671241469935</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2778691528628682</v>
+        <v>0.2785816492072986</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3308813319186994</v>
+        <v>0.3284255441284492</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>589</v>
@@ -3171,19 +3171,19 @@
         <v>632857</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>588821</v>
+        <v>588839</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>672717</v>
+        <v>675373</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2740360214229587</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2549681177036879</v>
+        <v>0.254975684887539</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2912962556283692</v>
+        <v>0.2924462692187854</v>
       </c>
     </row>
     <row r="7">
@@ -3200,19 +3200,19 @@
         <v>68178</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54001</v>
+        <v>53683</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>86573</v>
+        <v>86599</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07010248021441838</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05552546187211767</v>
+        <v>0.05519792886184927</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08901719705921142</v>
+        <v>0.08904398076943909</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -3221,19 +3221,19 @@
         <v>136658</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>115281</v>
+        <v>114339</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>159933</v>
+        <v>158242</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1022242753756613</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08623389061123563</v>
+        <v>0.08552893917724415</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1196348888802123</v>
+        <v>0.1183694171752738</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>192</v>
@@ -3242,19 +3242,19 @@
         <v>204836</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>179508</v>
+        <v>178060</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>236918</v>
+        <v>235079</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08869693723391005</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0777296398393877</v>
+        <v>0.07710257851709994</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1025890052869487</v>
+        <v>0.1017927766908116</v>
       </c>
     </row>
     <row r="8">
@@ -3271,19 +3271,19 @@
         <v>46256</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33233</v>
+        <v>35027</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>60597</v>
+        <v>61567</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04756182076815218</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03417076240310069</v>
+        <v>0.03601531097932785</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06230808215620411</v>
+        <v>0.0633054200288705</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>67</v>
@@ -3292,19 +3292,19 @@
         <v>71903</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>56833</v>
+        <v>56600</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>91071</v>
+        <v>89250</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05378520965421757</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04251310755519178</v>
+        <v>0.04233853243247368</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06812354003391036</v>
+        <v>0.06676132187516623</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>110</v>
@@ -3313,19 +3313,19 @@
         <v>118159</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>96014</v>
+        <v>98425</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>140973</v>
+        <v>143010</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05116437587370087</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0415754645053131</v>
+        <v>0.04261954372295407</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06104331367223714</v>
+        <v>0.06192544158792868</v>
       </c>
     </row>
     <row r="9">
@@ -3342,19 +3342,19 @@
         <v>19990</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11414</v>
+        <v>11471</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29804</v>
+        <v>30426</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02055386952277985</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01173663979333127</v>
+        <v>0.01179522565747265</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03064539971052071</v>
+        <v>0.03128523539985006</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>40</v>
@@ -3363,19 +3363,19 @@
         <v>43749</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31891</v>
+        <v>31675</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>58460</v>
+        <v>57796</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03272527313060091</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02385520162379614</v>
+        <v>0.02369417036421081</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04372966421574461</v>
+        <v>0.04323276635038775</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>58</v>
@@ -3384,19 +3384,19 @@
         <v>63738</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47910</v>
+        <v>48227</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>82439</v>
+        <v>81848</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02759957291875896</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02074581868036888</v>
+        <v>0.02088282944701779</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03569718133758721</v>
+        <v>0.03544150237281821</v>
       </c>
     </row>
     <row r="10">
@@ -3488,19 +3488,19 @@
         <v>940035</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>898483</v>
+        <v>895751</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>985781</v>
+        <v>985638</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4792632927534115</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4580785056779146</v>
+        <v>0.4566857176162792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5025862759445998</v>
+        <v>0.5025133699176243</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>620</v>
@@ -3509,19 +3509,19 @@
         <v>664228</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>621948</v>
+        <v>624841</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>705609</v>
+        <v>707064</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.378740154306645</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3546324552875812</v>
+        <v>0.356282267785956</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4023357472341598</v>
+        <v>0.4031654058096301</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1511</v>
@@ -3530,19 +3530,19 @@
         <v>1604263</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1540585</v>
+        <v>1539931</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1666916</v>
+        <v>1663289</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4318107445925594</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4146707183846579</v>
+        <v>0.4144947064908771</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4486747396467312</v>
+        <v>0.4476983745302336</v>
       </c>
     </row>
     <row r="12">
@@ -3559,19 +3559,19 @@
         <v>549631</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>509326</v>
+        <v>508437</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>591960</v>
+        <v>589453</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2802212459405941</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2596724639898029</v>
+        <v>0.2592192005687652</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3018024640356384</v>
+        <v>0.3005241965025331</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>459</v>
@@ -3580,19 +3580,19 @@
         <v>492499</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>458232</v>
+        <v>452701</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>535765</v>
+        <v>528992</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2808211787435329</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2612823275697153</v>
+        <v>0.2581285125799158</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3054911627882558</v>
+        <v>0.3016295059468555</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>980</v>
@@ -3601,19 +3601,19 @@
         <v>1042130</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>991570</v>
+        <v>980134</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1104392</v>
+        <v>1097531</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2805044478050067</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2668954489122536</v>
+        <v>0.2638173548828033</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2972631332701859</v>
+        <v>0.2954163010015963</v>
       </c>
     </row>
     <row r="13">
@@ -3630,19 +3630,19 @@
         <v>348720</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>315503</v>
+        <v>316441</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>387621</v>
+        <v>386037</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.177789730836778</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1608547873534358</v>
+        <v>0.1613329670545305</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1976227011528981</v>
+        <v>0.1968152475106528</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>380</v>
@@ -3651,19 +3651,19 @@
         <v>407362</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>370108</v>
+        <v>373202</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>440657</v>
+        <v>443808</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2322763388252208</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2110341299417886</v>
+        <v>0.2127984392253079</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.251260968280455</v>
+        <v>0.2530576401071026</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>705</v>
@@ -3672,19 +3672,19 @@
         <v>756082</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>705977</v>
+        <v>704854</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>809733</v>
+        <v>804441</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2035104597121727</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1900239186736138</v>
+        <v>0.1897215730357481</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.217951271879315</v>
+        <v>0.2165270168693583</v>
       </c>
     </row>
     <row r="14">
@@ -3701,19 +3701,19 @@
         <v>74013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57465</v>
+        <v>57218</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91704</v>
+        <v>90605</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03773464905418943</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02929752269048613</v>
+        <v>0.02917167595219283</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04675374543425698</v>
+        <v>0.04619369067935328</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -3722,19 +3722,19 @@
         <v>91732</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74532</v>
+        <v>75412</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>114169</v>
+        <v>117053</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05230504553743074</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04249765718481457</v>
+        <v>0.04299956017051847</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06509861359214614</v>
+        <v>0.06674298775562507</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>155</v>
@@ -3743,19 +3743,19 @@
         <v>165745</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>141569</v>
+        <v>141996</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>192622</v>
+        <v>195479</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04461269177675982</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03810538271005175</v>
+        <v>0.03822030027584741</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05184712357407029</v>
+        <v>0.05261602334067194</v>
       </c>
     </row>
     <row r="15">
@@ -3772,19 +3772,19 @@
         <v>36757</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25445</v>
+        <v>25497</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>51873</v>
+        <v>52169</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0187401480607948</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01297260537363009</v>
+        <v>0.01299912602790981</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02644645382317089</v>
+        <v>0.02659783532277496</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>62</v>
@@ -3793,19 +3793,19 @@
         <v>68326</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>52783</v>
+        <v>53923</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>85922</v>
+        <v>88754</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0389592780833961</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0300966076736153</v>
+        <v>0.03074641670661254</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04899241005560078</v>
+        <v>0.05060710824413169</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>95</v>
@@ -3814,19 +3814,19 @@
         <v>105083</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>87268</v>
+        <v>84865</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>130147</v>
+        <v>127114</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02828470920356204</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.023489380555322</v>
+        <v>0.0228425571524388</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03503083284018754</v>
+        <v>0.03421445672998062</v>
       </c>
     </row>
     <row r="16">
@@ -3843,19 +3843,19 @@
         <v>12261</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6843</v>
+        <v>6229</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20795</v>
+        <v>20307</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006250933354232128</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003488862739041145</v>
+        <v>0.003175639950426568</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0106018031963182</v>
+        <v>0.01035314843257675</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -3864,19 +3864,19 @@
         <v>29635</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20080</v>
+        <v>19989</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42564</v>
+        <v>42079</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01689800450377451</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01144966112803677</v>
+        <v>0.01139750180220017</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02426969413966428</v>
+        <v>0.02399314240710311</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -3885,19 +3885,19 @@
         <v>41896</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30305</v>
+        <v>30017</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57049</v>
+        <v>56184</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01127694690993932</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008157051474246632</v>
+        <v>0.008079413479720675</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01535553705116919</v>
+        <v>0.01512284113642521</v>
       </c>
     </row>
     <row r="17">
@@ -3989,19 +3989,19 @@
         <v>244106</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>220402</v>
+        <v>221532</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>268842</v>
+        <v>268149</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5082965232846371</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4589367390275906</v>
+        <v>0.461289622856169</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5598037921190788</v>
+        <v>0.5583603077071939</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>174</v>
@@ -4010,19 +4010,19 @@
         <v>191956</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>170100</v>
+        <v>170813</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>215212</v>
+        <v>215264</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4195149423294456</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3717483687540469</v>
+        <v>0.373306911641156</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4703406923474048</v>
+        <v>0.4704542415170511</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>405</v>
@@ -4031,19 +4031,19 @@
         <v>436063</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>403315</v>
+        <v>404459</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>465935</v>
+        <v>471095</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4649791706541198</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.430060217400651</v>
+        <v>0.4312799671047752</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4968328675593402</v>
+        <v>0.502334363897503</v>
       </c>
     </row>
     <row r="19">
@@ -4060,19 +4060,19 @@
         <v>150072</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>128622</v>
+        <v>127106</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>173093</v>
+        <v>173080</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3124904462427275</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2678262359417508</v>
+        <v>0.2646701388266883</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3604280367624464</v>
+        <v>0.3604010463538623</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>140</v>
@@ -4081,19 +4081,19 @@
         <v>151971</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>132710</v>
+        <v>131321</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>174261</v>
+        <v>172725</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3321280450510912</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2900332504177104</v>
+        <v>0.2869981683310525</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3808434790326392</v>
+        <v>0.3774859624137354</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>272</v>
@@ -4102,19 +4102,19 @@
         <v>302042</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>273153</v>
+        <v>269472</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>332657</v>
+        <v>330196</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3220718119184283</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2912666802919086</v>
+        <v>0.2873412650437247</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3547164618115032</v>
+        <v>0.3520918897661414</v>
       </c>
     </row>
     <row r="20">
@@ -4131,19 +4131,19 @@
         <v>68770</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>51577</v>
+        <v>53579</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87295</v>
+        <v>88882</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1431986632873634</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1073977727942704</v>
+        <v>0.1115661627955221</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1817720335209833</v>
+        <v>0.185076114749775</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>76</v>
@@ -4152,19 +4152,19 @@
         <v>85421</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69968</v>
+        <v>68625</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>105683</v>
+        <v>105306</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1866845749877618</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1529124060191967</v>
+        <v>0.1499784459650998</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2309675583843304</v>
+        <v>0.2301429754902911</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>135</v>
@@ -4173,19 +4173,19 @@
         <v>154191</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>132325</v>
+        <v>130771</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>179712</v>
+        <v>177938</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1644158408969445</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1411000610147345</v>
+        <v>0.139442715823726</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1916295968601599</v>
+        <v>0.1897380279720781</v>
       </c>
     </row>
     <row r="21">
@@ -4202,19 +4202,19 @@
         <v>11098</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5174</v>
+        <v>5074</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21723</v>
+        <v>21605</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02310872547160726</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0107731492812536</v>
+        <v>0.0105646389061536</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04523360283424402</v>
+        <v>0.04498712828741561</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -4223,19 +4223,19 @@
         <v>14800</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7466</v>
+        <v>7925</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25504</v>
+        <v>26094</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03234602788951344</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01631782200678202</v>
+        <v>0.01731974973541752</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05573814132619093</v>
+        <v>0.05702669922186315</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>21</v>
@@ -4244,19 +4244,19 @@
         <v>25898</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15962</v>
+        <v>16488</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>39834</v>
+        <v>40646</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02761569056375992</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01702043815571356</v>
+        <v>0.01758167816497661</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04247514021330583</v>
+        <v>0.04334169650191724</v>
       </c>
     </row>
     <row r="22">
@@ -4273,19 +4273,19 @@
         <v>5263</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2056</v>
+        <v>2018</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12139</v>
+        <v>12249</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0109584116543966</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004280133397495688</v>
+        <v>0.004201642859821622</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02527616928140041</v>
+        <v>0.02550630743704315</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -4294,19 +4294,19 @@
         <v>13419</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6599</v>
+        <v>6530</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24730</v>
+        <v>25697</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02932640974218803</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01442107751013474</v>
+        <v>0.01427202588619226</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05404779292014595</v>
+        <v>0.05616078700109059</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -4315,19 +4315,19 @@
         <v>18682</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10513</v>
+        <v>10314</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31310</v>
+        <v>30852</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01992032742256816</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01121024336490174</v>
+        <v>0.01099816913592756</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03338637602948402</v>
+        <v>0.03289822451561044</v>
       </c>
     </row>
     <row r="23">
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4724</v>
+        <v>5203</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.001947230059268009</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.009836417334723176</v>
+        <v>0.01083490763724332</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5365</v>
+        <v>4690</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0009971585441794582</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.005721072423926867</v>
+        <v>0.005000920319886486</v>
       </c>
     </row>
     <row r="24">
@@ -4482,19 +4482,19 @@
         <v>1489617</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1428866</v>
+        <v>1430604</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1548593</v>
+        <v>1552322</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4362995415303698</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4185057059150901</v>
+        <v>0.4190149697901061</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.453573126492003</v>
+        <v>0.4546652595286581</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1073</v>
@@ -4503,19 +4503,19 @@
         <v>1162373</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1105689</v>
+        <v>1105667</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1219287</v>
+        <v>1223550</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.327595556986627</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3116200649214436</v>
+        <v>0.3116139242537556</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3436358235056013</v>
+        <v>0.3448372437984493</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2484</v>
@@ -4524,19 +4524,19 @@
         <v>2651990</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2565475</v>
+        <v>2565380</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2741616</v>
+        <v>2732173</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.38090158104363</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3684754426062017</v>
+        <v>0.3684618983857186</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3937744376622729</v>
+        <v>0.3924181490704167</v>
       </c>
     </row>
     <row r="26">
@@ -4553,19 +4553,19 @@
         <v>1004112</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>947267</v>
+        <v>954242</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1058770</v>
+        <v>1056599</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2940982174073729</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2774486667115024</v>
+        <v>0.2794913258150353</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3101069680545507</v>
+        <v>0.3094712077622335</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>950</v>
@@ -4574,19 +4574,19 @@
         <v>1018198</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>960839</v>
+        <v>962321</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1073726</v>
+        <v>1075239</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2869623094965411</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2707965826493409</v>
+        <v>0.2712143092659325</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3026118527930557</v>
+        <v>0.3030384353571834</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1887</v>
@@ -4595,19 +4595,19 @@
         <v>2022311</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1941492</v>
+        <v>1943947</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2108135</v>
+        <v>2101107</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.290461600533203</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2788537337800665</v>
+        <v>0.2792063960508036</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3027884505318663</v>
+        <v>0.3017790658693305</v>
       </c>
     </row>
     <row r="27">
@@ -4624,19 +4624,19 @@
         <v>645728</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>599669</v>
+        <v>596164</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>695678</v>
+        <v>692370</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1891295254715396</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1756393526143546</v>
+        <v>0.1746127131555436</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2037597700137688</v>
+        <v>0.2027908357914799</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>837</v>
@@ -4645,19 +4645,19 @@
         <v>897402</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>843978</v>
+        <v>840952</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>950546</v>
+        <v>948282</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2529179237137361</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2378612816421357</v>
+        <v>0.2370083525243231</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2678956390065778</v>
+        <v>0.2672575817735661</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1429</v>
@@ -4666,19 +4666,19 @@
         <v>1543130</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1476215</v>
+        <v>1471550</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1612827</v>
+        <v>1611021</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2216375074021525</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2120267239827349</v>
+        <v>0.2113566140952372</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2316481059175583</v>
+        <v>0.2313886297379542</v>
       </c>
     </row>
     <row r="28">
@@ -4695,19 +4695,19 @@
         <v>153289</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>128211</v>
+        <v>130256</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>177949</v>
+        <v>180340</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04489742042688809</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03755208939997339</v>
+        <v>0.03815122628844778</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0521201099115365</v>
+        <v>0.05282058069766645</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>223</v>
@@ -4716,19 +4716,19 @@
         <v>243190</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>213407</v>
+        <v>216871</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>277260</v>
+        <v>276877</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06853914262806787</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06014536646457277</v>
+        <v>0.06112144044129619</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07814117550934395</v>
+        <v>0.0780331247689952</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>368</v>
@@ -4737,19 +4737,19 @@
         <v>396479</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>358851</v>
+        <v>361004</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>438820</v>
+        <v>440386</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05694576619670123</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05154121180576787</v>
+        <v>0.05185043180134254</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0630270927768654</v>
+        <v>0.06325198960330769</v>
       </c>
     </row>
     <row r="29">
@@ -4766,19 +4766,19 @@
         <v>88276</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>72246</v>
+        <v>71877</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>112353</v>
+        <v>110537</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0258554940723305</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02116051060114882</v>
+        <v>0.02105233341977887</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03290740284696704</v>
+        <v>0.03237569017876603</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>138</v>
@@ -4787,19 +4787,19 @@
         <v>153647</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>129237</v>
+        <v>128573</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>180808</v>
+        <v>180845</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04330298180824983</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03642342874925242</v>
+        <v>0.03623613955671334</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0509578372099055</v>
+        <v>0.05096813448759537</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>219</v>
@@ -4808,19 +4808,19 @@
         <v>241923</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>211266</v>
+        <v>210584</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>272668</v>
+        <v>275327</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03474712063270181</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03034378060010907</v>
+        <v>0.03024592534083059</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0391628569302535</v>
+        <v>0.03954477515468238</v>
       </c>
     </row>
     <row r="30">
@@ -4837,19 +4837,19 @@
         <v>33185</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22612</v>
+        <v>22706</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>47458</v>
+        <v>46602</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009719801091499185</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.006622921212000415</v>
+        <v>0.00665043949137961</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01390026245058506</v>
+        <v>0.01364949563776764</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>67</v>
@@ -4858,19 +4858,19 @@
         <v>73384</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>56476</v>
+        <v>58007</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>93083</v>
+        <v>92402</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02068208536677818</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0159167563522608</v>
+        <v>0.01634843731549685</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02623391313331696</v>
+        <v>0.02604183307698516</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>98</v>
@@ -4879,19 +4879,19 @@
         <v>106569</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>87255</v>
+        <v>86899</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>129904</v>
+        <v>127547</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0153064241916114</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01253226996115555</v>
+        <v>0.01248112663342569</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01865786111087896</v>
+        <v>0.01831940121940829</v>
       </c>
     </row>
     <row r="31">
@@ -5222,19 +5222,19 @@
         <v>226889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>201836</v>
+        <v>202128</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>252437</v>
+        <v>251483</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.301169512520622</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2679149185954701</v>
+        <v>0.2683025958249195</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3350819877016294</v>
+        <v>0.3338150345221633</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>192</v>
@@ -5243,19 +5243,19 @@
         <v>213813</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>187049</v>
+        <v>187672</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>241673</v>
+        <v>245468</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2154188531609531</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1884545472231667</v>
+        <v>0.1890816060379842</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2434885934613667</v>
+        <v>0.2473123999720463</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>417</v>
@@ -5264,19 +5264,19 @@
         <v>440702</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>401417</v>
+        <v>405527</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>475692</v>
+        <v>479612</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2524203717134045</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2299193844795919</v>
+        <v>0.232273349829821</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2724615898379004</v>
+        <v>0.2747070606175478</v>
       </c>
     </row>
     <row r="5">
@@ -5293,19 +5293,19 @@
         <v>222788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>198968</v>
+        <v>200924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>248747</v>
+        <v>249546</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2957254864350628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2641078196154825</v>
+        <v>0.2667032856219279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3301835504394031</v>
+        <v>0.3312440452102263</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>243</v>
@@ -5314,19 +5314,19 @@
         <v>268350</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>239182</v>
+        <v>238960</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>296592</v>
+        <v>297903</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2703654958190512</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2409782446944575</v>
+        <v>0.2407548395755552</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2988202951307196</v>
+        <v>0.3001407617256136</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>469</v>
@@ -5335,19 +5335,19 @@
         <v>491137</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>453825</v>
+        <v>456144</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>531176</v>
+        <v>531800</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2813083640170966</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2599371567470672</v>
+        <v>0.2612654770369378</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3042411223126587</v>
+        <v>0.3045986934951594</v>
       </c>
     </row>
     <row r="6">
@@ -5364,19 +5364,19 @@
         <v>203407</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>181861</v>
+        <v>180904</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>227809</v>
+        <v>228235</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2699995346454213</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2414001924492317</v>
+        <v>0.2401295238523384</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3023912825908256</v>
+        <v>0.3029564640573011</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>269</v>
@@ -5385,19 +5385,19 @@
         <v>298862</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>268814</v>
+        <v>266784</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>335225</v>
+        <v>329973</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.301107021871525</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.270833129385197</v>
+        <v>0.2687879606460214</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3377431123787188</v>
+        <v>0.3324514180033041</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>475</v>
@@ -5406,19 +5406,19 @@
         <v>502269</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>463987</v>
+        <v>464536</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>542104</v>
+        <v>543111</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2876841015778278</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.26575760408524</v>
+        <v>0.2660718130079523</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3105003243723444</v>
+        <v>0.3110773998260213</v>
       </c>
     </row>
     <row r="7">
@@ -5435,19 +5435,19 @@
         <v>59015</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45392</v>
+        <v>45879</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74100</v>
+        <v>75800</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07833586482783528</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06025317564890045</v>
+        <v>0.06089911128926993</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09835909279493253</v>
+        <v>0.1006157549828801</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>94</v>
@@ -5456,19 +5456,19 @@
         <v>106557</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87280</v>
+        <v>87086</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>129151</v>
+        <v>128620</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1073577475045331</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08793600523737827</v>
+        <v>0.08774047778291173</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1301212623075552</v>
+        <v>0.1295866734520733</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>155</v>
@@ -5477,19 +5477,19 @@
         <v>165572</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>141661</v>
+        <v>140440</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>193819</v>
+        <v>190700</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09483476822591583</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08113890767195651</v>
+        <v>0.08043987495390256</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1110135552775766</v>
+        <v>0.1092273458252797</v>
       </c>
     </row>
     <row r="8">
@@ -5506,19 +5506,19 @@
         <v>26652</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17403</v>
+        <v>18328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37734</v>
+        <v>38045</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03537803538162544</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02310018608104903</v>
+        <v>0.02432831288674785</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05008797926557873</v>
+        <v>0.05050050252088716</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>60</v>
@@ -5527,19 +5527,19 @@
         <v>68538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52142</v>
+        <v>52100</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86151</v>
+        <v>86876</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06905252965449694</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05253383109589695</v>
+        <v>0.05249096818774101</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08679863993564711</v>
+        <v>0.08752901270082848</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>88</v>
@@ -5548,19 +5548,19 @@
         <v>95190</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>76511</v>
+        <v>76771</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>115870</v>
+        <v>116024</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05452194255596663</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0438231306709355</v>
+        <v>0.04397200888279309</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06636696542658299</v>
+        <v>0.06645509215308046</v>
       </c>
     </row>
     <row r="9">
@@ -5577,19 +5577,19 @@
         <v>14609</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8556</v>
+        <v>8287</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23103</v>
+        <v>23134</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01939156618943317</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01135729342629377</v>
+        <v>0.01100061020898824</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03066651374669932</v>
+        <v>0.03070722072916809</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>32</v>
@@ -5598,19 +5598,19 @@
         <v>36425</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25194</v>
+        <v>24591</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49810</v>
+        <v>50593</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03669835198944061</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02538327305021137</v>
+        <v>0.02477522553359275</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0501846392792451</v>
+        <v>0.0509732660275307</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>47</v>
@@ -5619,19 +5619,19 @@
         <v>51034</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>38957</v>
+        <v>38311</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>68783</v>
+        <v>68277</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02923045190978868</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02231344872822652</v>
+        <v>0.02194356215941198</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03939670539163743</v>
+        <v>0.03910710400321334</v>
       </c>
     </row>
     <row r="10">
@@ -5723,19 +5723,19 @@
         <v>873373</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>826124</v>
+        <v>831430</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>919048</v>
+        <v>920512</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4214917259967915</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3986892441947724</v>
+        <v>0.401249927838836</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4435347805193648</v>
+        <v>0.4442409815983648</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>682</v>
@@ -5744,19 +5744,19 @@
         <v>700413</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>659226</v>
+        <v>657825</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>745783</v>
+        <v>741707</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.352955285652651</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3322002438853753</v>
+        <v>0.3314941399967812</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3758180194246851</v>
+        <v>0.3737639895867109</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1505</v>
@@ -5765,19 +5765,19 @@
         <v>1573786</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1509528</v>
+        <v>1507616</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1632708</v>
+        <v>1639560</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3879641563742699</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.37212334266347</v>
+        <v>0.3716520251219587</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4024892511089843</v>
+        <v>0.4041784174126022</v>
       </c>
     </row>
     <row r="12">
@@ -5794,19 +5794,19 @@
         <v>701825</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>661204</v>
+        <v>657427</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>745900</v>
+        <v>744002</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3387022740762184</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3190982853923119</v>
+        <v>0.3172758754359487</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3599729405538137</v>
+        <v>0.35905702249187</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>637</v>
@@ -5815,19 +5815,19 @@
         <v>658431</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>616641</v>
+        <v>615273</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>704047</v>
+        <v>699550</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3317996268031864</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3107401694160963</v>
+        <v>0.310051159122967</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3547864901309924</v>
+        <v>0.3525202654132231</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1301</v>
@@ -5836,19 +5836,19 @@
         <v>1360256</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1303780</v>
+        <v>1300103</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1423873</v>
+        <v>1421492</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3353255450563828</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3214031407898467</v>
+        <v>0.3204968025059054</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3510080845593131</v>
+        <v>0.3504212104300157</v>
       </c>
     </row>
     <row r="13">
@@ -5865,19 +5865,19 @@
         <v>377151</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>341970</v>
+        <v>343983</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>413203</v>
+        <v>411549</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1820140303788951</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1650354148599403</v>
+        <v>0.1660067843249259</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1994127733363067</v>
+        <v>0.1986144911682454</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>424</v>
@@ -5886,19 +5886,19 @@
         <v>448590</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>411552</v>
+        <v>410529</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>485582</v>
+        <v>483382</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.226055240508102</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2073908304821613</v>
+        <v>0.2068756911108389</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2446967852541798</v>
+        <v>0.2435880087238008</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>775</v>
@@ -5907,19 +5907,19 @@
         <v>825741</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>776243</v>
+        <v>775439</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>879564</v>
+        <v>880146</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.20355869671191</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1913566155035733</v>
+        <v>0.1911585524654614</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2168268440883379</v>
+        <v>0.2169705174688078</v>
       </c>
     </row>
     <row r="14">
@@ -5936,19 +5936,19 @@
         <v>64132</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47842</v>
+        <v>48647</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>80950</v>
+        <v>80576</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03095037640497989</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02308842748069682</v>
+        <v>0.02347735250677398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03906683451148148</v>
+        <v>0.03888604324652451</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>90</v>
@@ -5957,19 +5957,19 @@
         <v>99907</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>82246</v>
+        <v>79841</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>122576</v>
+        <v>120588</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05034570447306289</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04144553816860762</v>
+        <v>0.04023401486696213</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06176886179504404</v>
+        <v>0.06076718326800457</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>151</v>
@@ -5978,19 +5978,19 @@
         <v>164040</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>140887</v>
+        <v>141262</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>193891</v>
+        <v>191116</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04043844156986258</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03473104865611133</v>
+        <v>0.03482328444008816</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04779732066584466</v>
+        <v>0.04711312595044818</v>
       </c>
     </row>
     <row r="15">
@@ -6007,19 +6007,19 @@
         <v>26593</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17489</v>
+        <v>17960</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>38885</v>
+        <v>40929</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01283391617056601</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.008440432975898957</v>
+        <v>0.008667377510386846</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01876620257347769</v>
+        <v>0.01975263984186901</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>49</v>
@@ -6028,19 +6028,19 @@
         <v>52630</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>38321</v>
+        <v>39267</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>69184</v>
+        <v>69890</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0265215508690995</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01931080981503051</v>
+        <v>0.0197877074186169</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03486365074176483</v>
+        <v>0.03521908541870163</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>73</v>
@@ -6049,19 +6049,19 @@
         <v>79223</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>63148</v>
+        <v>63432</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>99722</v>
+        <v>98129</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01952981579736883</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01556694897238931</v>
+        <v>0.01563713696313296</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02458299549872706</v>
+        <v>0.02419045365210415</v>
       </c>
     </row>
     <row r="16">
@@ -6078,19 +6078,19 @@
         <v>29025</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19093</v>
+        <v>18818</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43896</v>
+        <v>41352</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01400767697254905</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009214354501785179</v>
+        <v>0.009081718154799303</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02118451031080482</v>
+        <v>0.0199566544460903</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -6099,19 +6099,19 @@
         <v>24453</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16164</v>
+        <v>15377</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37353</v>
+        <v>35524</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01232259169389827</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008145547039639708</v>
+        <v>0.007748762178091052</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01882320209633461</v>
+        <v>0.01790143127659117</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -6120,19 +6120,19 @@
         <v>53479</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39204</v>
+        <v>39048</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70599</v>
+        <v>71703</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01318334449020587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009664438016373884</v>
+        <v>0.009625894910759613</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01740379644153727</v>
+        <v>0.01767584485486602</v>
       </c>
     </row>
     <row r="17">
@@ -6224,19 +6224,19 @@
         <v>254908</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>228976</v>
+        <v>232398</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>280320</v>
+        <v>279716</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4661076784959188</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4186909196017766</v>
+        <v>0.4249485717691006</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5125740071518669</v>
+        <v>0.5114703422135563</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>208</v>
@@ -6245,19 +6245,19 @@
         <v>217168</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>192898</v>
+        <v>193435</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>239387</v>
+        <v>240112</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3962408703568258</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3519585464324121</v>
+        <v>0.3529390302429348</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4367823937488299</v>
+        <v>0.438105105570038</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>445</v>
@@ -6266,19 +6266,19 @@
         <v>472076</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>439217</v>
+        <v>436659</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>506318</v>
+        <v>506145</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4311364971396484</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4011270394617713</v>
+        <v>0.3987905991852521</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4624091715812367</v>
+        <v>0.4622508872539591</v>
       </c>
     </row>
     <row r="19">
@@ -6295,19 +6295,19 @@
         <v>182009</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>160534</v>
+        <v>160314</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>207353</v>
+        <v>206243</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3328089886257051</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2935420867970123</v>
+        <v>0.2931388874141134</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.379151812446063</v>
+        <v>0.377122744066343</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>186</v>
@@ -6316,19 +6316,19 @@
         <v>194475</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>173587</v>
+        <v>172075</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>216683</v>
+        <v>217019</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.354836595217828</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3167233751950848</v>
+        <v>0.3139662797521944</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3953557380377954</v>
+        <v>0.3959698562867495</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>354</v>
@@ -6337,19 +6337,19 @@
         <v>376484</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>345174</v>
+        <v>343790</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>410334</v>
+        <v>409356</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3438347023443583</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3152398101899401</v>
+        <v>0.3139762483245167</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3747491753576592</v>
+        <v>0.3738558554167311</v>
       </c>
     </row>
     <row r="20">
@@ -6366,19 +6366,19 @@
         <v>80779</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63976</v>
+        <v>64397</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>100611</v>
+        <v>98960</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1477066110292549</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1169827054834851</v>
+        <v>0.1177529375685102</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1839698480356294</v>
+        <v>0.1809523808278954</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>108</v>
@@ -6387,19 +6387,19 @@
         <v>112555</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>95414</v>
+        <v>95530</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>134662</v>
+        <v>133057</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.205366211956569</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1740907928645637</v>
+        <v>0.1743023292185521</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2457015022238389</v>
+        <v>0.2427744407132964</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>178</v>
@@ -6408,19 +6408,19 @@
         <v>193334</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>165610</v>
+        <v>169812</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>218426</v>
+        <v>221410</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1765675882896575</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1512477121916799</v>
+        <v>0.1550854208023794</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1994839354651693</v>
+        <v>0.2022092477347406</v>
       </c>
     </row>
     <row r="21">
@@ -6437,19 +6437,19 @@
         <v>18230</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10308</v>
+        <v>10233</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29494</v>
+        <v>29121</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03333476174151812</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01884862091161755</v>
+        <v>0.01871220724133606</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05393111535018073</v>
+        <v>0.05324800728812852</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -6458,19 +6458,19 @@
         <v>11600</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6638</v>
+        <v>5964</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21471</v>
+        <v>20869</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02116441025947395</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01211133634072433</v>
+        <v>0.01088263893926873</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03917646424693872</v>
+        <v>0.03807766410834899</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -6479,19 +6479,19 @@
         <v>29830</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19386</v>
+        <v>19956</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>42454</v>
+        <v>44177</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02724300543857095</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01770506404828636</v>
+        <v>0.01822549440768366</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03877191782212657</v>
+        <v>0.04034551771163782</v>
       </c>
     </row>
     <row r="22">
@@ -6508,19 +6508,19 @@
         <v>5821</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2062</v>
+        <v>2099</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14710</v>
+        <v>15273</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01064391079618519</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003771060050333415</v>
+        <v>0.003837847984716027</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02689854556309313</v>
+        <v>0.02792667346286081</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -6529,19 +6529,19 @@
         <v>7296</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3096</v>
+        <v>3177</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14647</v>
+        <v>14737</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01331244460495814</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005648861410319347</v>
+        <v>0.005795990698191658</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02672385401447924</v>
+        <v>0.02688943276444069</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -6550,19 +6550,19 @@
         <v>13117</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6549</v>
+        <v>7080</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22595</v>
+        <v>22010</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01197962058839654</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005980886035468656</v>
+        <v>0.006465791963320924</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02063548422726317</v>
+        <v>0.02010085430236147</v>
       </c>
     </row>
     <row r="23">
@@ -6579,19 +6579,19 @@
         <v>5140</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1951</v>
+        <v>2021</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10257</v>
+        <v>11456</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.009398049311417894</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003568003253083243</v>
+        <v>0.003694755846399064</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01875460989857088</v>
+        <v>0.02094852331110577</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -6600,19 +6600,19 @@
         <v>4976</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1858</v>
+        <v>1925</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10726</v>
+        <v>12083</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009079467604345253</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003389299845180239</v>
+        <v>0.00351260578232591</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01957107919532401</v>
+        <v>0.02204654325180443</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -6621,19 +6621,19 @@
         <v>10116</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5047</v>
+        <v>5131</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>17670</v>
+        <v>18289</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009238586199368359</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004609421488812321</v>
+        <v>0.004685830848871719</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0161373801923856</v>
+        <v>0.01670260553012619</v>
       </c>
     </row>
     <row r="24">
@@ -6725,19 +6725,19 @@
         <v>1355170</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1297631</v>
+        <v>1301063</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1416743</v>
+        <v>1418870</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4018478123269244</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.384785975207527</v>
+        <v>0.3858034641090273</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4201061961893583</v>
+        <v>0.4207366416666997</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1082</v>
@@ -6746,19 +6746,19 @@
         <v>1131394</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1071988</v>
+        <v>1075031</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1185579</v>
+        <v>1185748</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.320959203465193</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3041066903110743</v>
+        <v>0.3049700146166049</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3363306758102025</v>
+        <v>0.336378602897498</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2367</v>
@@ -6767,19 +6767,19 @@
         <v>2486564</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2401086</v>
+        <v>2402895</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2569197</v>
+        <v>2562524</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3605081567622648</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.348115378575742</v>
+        <v>0.3483776239840219</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.372488571889702</v>
+        <v>0.3715210447204899</v>
       </c>
     </row>
     <row r="26">
@@ -6796,19 +6796,19 @@
         <v>1106621</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1053546</v>
+        <v>1053458</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1164558</v>
+        <v>1164422</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3281458415498223</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3124075050658391</v>
+        <v>0.3123813432385449</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3453257356607446</v>
+        <v>0.3452854807710258</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1066</v>
@@ -6817,19 +6817,19 @@
         <v>1121256</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1066095</v>
+        <v>1064190</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1184816</v>
+        <v>1174377</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3180834072060656</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3024348238976722</v>
+        <v>0.3018944563606298</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3361144149883996</v>
+        <v>0.3331529970619549</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2124</v>
@@ -6838,19 +6838,19 @@
         <v>2227878</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2149160</v>
+        <v>2150467</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2305411</v>
+        <v>2307888</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3230032438989718</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3115905262232834</v>
+        <v>0.3117801000774737</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3342442498072113</v>
+        <v>0.3346033844988859</v>
       </c>
     </row>
     <row r="27">
@@ -6867,19 +6867,19 @@
         <v>661337</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>616467</v>
+        <v>615349</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>709224</v>
+        <v>707878</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1961058496479413</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1828006671874994</v>
+        <v>0.1824691620037389</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2103058336968998</v>
+        <v>0.2099065555855672</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>801</v>
@@ -6888,19 +6888,19 @@
         <v>860007</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>807809</v>
+        <v>809994</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>915265</v>
+        <v>909381</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2439708335187233</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2291632418602864</v>
+        <v>0.2297829401482749</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2596468320055613</v>
+        <v>0.257977605924913</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1428</v>
@@ -6909,19 +6909,19 @@
         <v>1521343</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1453260</v>
+        <v>1457966</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1588759</v>
+        <v>1594052</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2205681562034723</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.210697299259043</v>
+        <v>0.2113795230946716</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2303422050874238</v>
+        <v>0.2311096196176019</v>
       </c>
     </row>
     <row r="28">
@@ -6938,19 +6938,19 @@
         <v>141378</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>118243</v>
+        <v>120624</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>165084</v>
+        <v>166651</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04192265266053508</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03506253284871819</v>
+        <v>0.03576855261655649</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04895219760170785</v>
+        <v>0.04941688520638933</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>195</v>
@@ -6959,19 +6959,19 @@
         <v>218064</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>189013</v>
+        <v>189722</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>250282</v>
+        <v>249081</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0618614832380402</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05362018584288413</v>
+        <v>0.05382134737102678</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07100127344871733</v>
+        <v>0.0706603812952607</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>333</v>
@@ -6980,19 +6980,19 @@
         <v>359442</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>323501</v>
+        <v>320316</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>398343</v>
+        <v>398915</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05211276966261057</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04690202786439567</v>
+        <v>0.04644020405474724</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05775282203622881</v>
+        <v>0.05783569711062904</v>
       </c>
     </row>
     <row r="29">
@@ -7009,19 +7009,19 @@
         <v>59067</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>44275</v>
+        <v>45097</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>75593</v>
+        <v>76824</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0175149751179763</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01312891035602852</v>
+        <v>0.0133724965578219</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02241551975825752</v>
+        <v>0.02278049978963182</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>116</v>
@@ -7030,19 +7030,19 @@
         <v>128464</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>107177</v>
+        <v>106264</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>154350</v>
+        <v>152368</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03644324398653397</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03040457371142677</v>
+        <v>0.03014554715221766</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04378666183648555</v>
+        <v>0.0432243650400911</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>173</v>
@@ -7051,19 +7051,19 @@
         <v>187530</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>159261</v>
+        <v>161116</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>214625</v>
+        <v>217122</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02718862541896002</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02308999792699791</v>
+        <v>0.02335900180085102</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03111683826990732</v>
+        <v>0.03147886271190233</v>
       </c>
     </row>
     <row r="30">
@@ -7080,19 +7080,19 @@
         <v>48774</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>35414</v>
+        <v>36708</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>64294</v>
+        <v>64110</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0144628686968006</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01050137088944253</v>
+        <v>0.01088509802870977</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01906509786826192</v>
+        <v>0.01901047255443247</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>59</v>
@@ -7101,19 +7101,19 @@
         <v>65854</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>50352</v>
+        <v>49524</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>83966</v>
+        <v>85666</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01868182858544395</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01428413775663587</v>
+        <v>0.01404912861436579</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02381990931480343</v>
+        <v>0.02430227700186282</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>104</v>
@@ -7122,19 +7122,19 @@
         <v>114628</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>95141</v>
+        <v>92458</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>139864</v>
+        <v>136861</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01661904805372047</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01379373832897548</v>
+        <v>0.01340477216492501</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02027777610238687</v>
+        <v>0.01984247285357809</v>
       </c>
     </row>
     <row r="31">
@@ -7465,19 +7465,19 @@
         <v>207181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>183210</v>
+        <v>185110</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>228843</v>
+        <v>229005</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3584116830806834</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3169439160244338</v>
+        <v>0.3202303486378913</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3958872686515608</v>
+        <v>0.3961666928575249</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>293</v>
@@ -7486,19 +7486,19 @@
         <v>173815</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>156494</v>
+        <v>157143</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>192917</v>
+        <v>193697</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2119485158643833</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1908269773668031</v>
+        <v>0.1916179675779514</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2352405747534969</v>
+        <v>0.2361922394926969</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>533</v>
@@ -7507,19 +7507,19 @@
         <v>380996</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>352841</v>
+        <v>350968</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>411292</v>
+        <v>411651</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2725030095982502</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2523653690264147</v>
+        <v>0.2510261327905371</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2941718135912509</v>
+        <v>0.2944284076928147</v>
       </c>
     </row>
     <row r="5">
@@ -7536,19 +7536,19 @@
         <v>128315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108511</v>
+        <v>109167</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>151343</v>
+        <v>150454</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2219785517326334</v>
+        <v>0.2219785517326333</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.187717865548972</v>
+        <v>0.1888534776436601</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2618152795539308</v>
+        <v>0.2602771115120036</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>329</v>
@@ -7557,19 +7557,19 @@
         <v>185735</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>169917</v>
+        <v>166665</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>204951</v>
+        <v>204949</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2264832492413462</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2071946730593282</v>
+        <v>0.2032300122401527</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2499153519438222</v>
+        <v>0.2499128727832052</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>472</v>
@@ -7578,19 +7578,19 @@
         <v>314050</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>287280</v>
+        <v>288669</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>343880</v>
+        <v>343709</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2246208036705668</v>
+        <v>0.2246208036705669</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2054740515731892</v>
+        <v>0.2064672936437268</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2459560457409369</v>
+        <v>0.2458339401189148</v>
       </c>
     </row>
     <row r="6">
@@ -7607,19 +7607,19 @@
         <v>140724</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>122940</v>
+        <v>122642</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>162559</v>
+        <v>160963</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2434454866156646</v>
+        <v>0.2434454866156647</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.212679935447337</v>
+        <v>0.2121643185965723</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2812178042832477</v>
+        <v>0.2784580699520058</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>444</v>
@@ -7628,19 +7628,19 @@
         <v>248054</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>228785</v>
+        <v>227005</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>269020</v>
+        <v>267226</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3024742911415942</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2789781017478715</v>
+        <v>0.2768070071721485</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3280402797255637</v>
+        <v>0.3258527936814131</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>625</v>
@@ -7649,19 +7649,19 @@
         <v>388778</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>361678</v>
+        <v>360212</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>415823</v>
+        <v>418722</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2780691151391921</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2586857216199819</v>
+        <v>0.257637604284329</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2974123824090425</v>
+        <v>0.2994858702168819</v>
       </c>
     </row>
     <row r="7">
@@ -7678,19 +7678,19 @@
         <v>48979</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37917</v>
+        <v>37754</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61973</v>
+        <v>61481</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0847305619952836</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06559370867444458</v>
+        <v>0.06531238018501666</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1072108335568464</v>
+        <v>0.1063593322175763</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>186</v>
@@ -7699,19 +7699,19 @@
         <v>109525</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>95189</v>
+        <v>95169</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>125852</v>
+        <v>125972</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1335535393757194</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1160719973136254</v>
+        <v>0.1160474314050813</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1534629847471269</v>
+        <v>0.1536088853875512</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>251</v>
@@ -7720,19 +7720,19 @@
         <v>158504</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>139164</v>
+        <v>141087</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>179763</v>
+        <v>179921</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1133679136375693</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09953558396281914</v>
+        <v>0.1009111385971339</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1285733000673402</v>
+        <v>0.1286864009472887</v>
       </c>
     </row>
     <row r="8">
@@ -7749,19 +7749,19 @@
         <v>32559</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22807</v>
+        <v>22711</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44966</v>
+        <v>44786</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0563254550751867</v>
+        <v>0.05632545507518669</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03945512608254377</v>
+        <v>0.03928865604560255</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07778902036921823</v>
+        <v>0.07747674158756951</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>122</v>
@@ -7770,19 +7770,19 @@
         <v>72799</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>60700</v>
+        <v>60860</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86508</v>
+        <v>87734</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0887708923558779</v>
+        <v>0.08877089235587791</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07401695376640598</v>
+        <v>0.07421232206850267</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1054868870217013</v>
+        <v>0.1069815645019026</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>160</v>
@@ -7791,19 +7791,19 @@
         <v>105359</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>88842</v>
+        <v>89359</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>122883</v>
+        <v>124158</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.07535648199013285</v>
+        <v>0.07535648199013287</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06354337286932363</v>
+        <v>0.06391311979869882</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08789096684320689</v>
+        <v>0.08880288420338227</v>
       </c>
     </row>
     <row r="9">
@@ -7820,19 +7820,19 @@
         <v>20294</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12832</v>
+        <v>12712</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29234</v>
+        <v>29786</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03510826150054824</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02219899958199654</v>
+        <v>0.02199075801263966</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05057367530328648</v>
+        <v>0.0515275609292442</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>49</v>
@@ -7841,19 +7841,19 @@
         <v>30154</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22221</v>
+        <v>21932</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>39227</v>
+        <v>38708</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.036769512021079</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0270962321525322</v>
+        <v>0.02674402028060867</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04783311043264188</v>
+        <v>0.04720057559241859</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>72</v>
@@ -7862,19 +7862,19 @@
         <v>50448</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>39682</v>
+        <v>39875</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>64521</v>
+        <v>63919</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.03608267596428869</v>
+        <v>0.03608267596428871</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0283824265399173</v>
+        <v>0.02852006454150674</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04614771526102325</v>
+        <v>0.04571732643996524</v>
       </c>
     </row>
     <row r="10">
@@ -7966,19 +7966,19 @@
         <v>1050868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>992544</v>
+        <v>990985</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1105020</v>
+        <v>1105436</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4718317084530277</v>
+        <v>0.4718317084530276</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.445644602518221</v>
+        <v>0.4449447807569364</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4961453964185215</v>
+        <v>0.4963322890853212</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1115</v>
@@ -7987,19 +7987,19 @@
         <v>874788</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>829848</v>
+        <v>832873</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>918051</v>
+        <v>920022</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.403163403391059</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3824515266915286</v>
+        <v>0.3838457146760273</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4231020183323727</v>
+        <v>0.4240102295413</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1984</v>
@@ -8008,19 +8008,19 @@
         <v>1925656</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1854284</v>
+        <v>1851945</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1994738</v>
+        <v>1994776</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4379457562173613</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4217137536593169</v>
+        <v>0.4211819322987182</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4536567812834413</v>
+        <v>0.453665508693786</v>
       </c>
     </row>
     <row r="12">
@@ -8037,19 +8037,19 @@
         <v>573416</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>528417</v>
+        <v>530673</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>621524</v>
+        <v>625515</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2574593038484019</v>
+        <v>0.257459303848402</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.237255186416569</v>
+        <v>0.2382680905914625</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2790592372756831</v>
+        <v>0.2808514384071439</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>747</v>
@@ -8058,19 +8058,19 @@
         <v>560723</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>524443</v>
+        <v>526830</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>596732</v>
+        <v>600967</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2584203889180293</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2416999395931304</v>
+        <v>0.2428001204495343</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2750155870160307</v>
+        <v>0.2769673651233679</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1249</v>
@@ -8079,19 +8079,19 @@
         <v>1134139</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1074540</v>
+        <v>1073994</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1191290</v>
+        <v>1192595</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2579335733492207</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2443791427940482</v>
+        <v>0.2442549143594442</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2709311510554651</v>
+        <v>0.2712280280410224</v>
       </c>
     </row>
     <row r="13">
@@ -8108,19 +8108,19 @@
         <v>390255</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>354116</v>
+        <v>351980</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>428394</v>
+        <v>429750</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1752213418419102</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1589953022357685</v>
+        <v>0.1580362491065668</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1923458031312555</v>
+        <v>0.1929541914099728</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>681</v>
@@ -8129,19 +8129,19 @@
         <v>464096</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>432478</v>
+        <v>431213</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>502008</v>
+        <v>497968</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2138878803951762</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1993161056881289</v>
+        <v>0.1987328047154213</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2313600811737697</v>
+        <v>0.229498231939553</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1089</v>
@@ -8150,19 +8150,19 @@
         <v>854351</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>800640</v>
+        <v>807902</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>904755</v>
+        <v>911386</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.194302233344214</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1820870475659068</v>
+        <v>0.1837386029026051</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2057655397330631</v>
+        <v>0.2072735212593515</v>
       </c>
     </row>
     <row r="14">
@@ -8179,19 +8179,19 @@
         <v>112423</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94637</v>
+        <v>92822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>137860</v>
+        <v>137359</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05047726616481278</v>
+        <v>0.05047726616481279</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04249133481648019</v>
+        <v>0.04167657099552578</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06189794851456255</v>
+        <v>0.06167323967703586</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>203</v>
@@ -8200,19 +8200,19 @@
         <v>144099</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>124955</v>
+        <v>124661</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>167996</v>
+        <v>167077</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06641099391684255</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05758819132381598</v>
+        <v>0.05745246591999703</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07742408309580324</v>
+        <v>0.07700057372913965</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>321</v>
@@ -8221,19 +8221,19 @@
         <v>256523</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>228012</v>
+        <v>227522</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>292490</v>
+        <v>288040</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05834013007348419</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05185593463475872</v>
+        <v>0.05174448557711856</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06652007428155786</v>
+        <v>0.06550807627217402</v>
       </c>
     </row>
     <row r="15">
@@ -8250,19 +8250,19 @@
         <v>65067</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>48852</v>
+        <v>48332</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>87575</v>
+        <v>86339</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02921459489300442</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02193438228607258</v>
+        <v>0.02170048585746977</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03932051285203379</v>
+        <v>0.03876535680160258</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>116</v>
@@ -8271,19 +8271,19 @@
         <v>83243</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>68845</v>
+        <v>67264</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>100453</v>
+        <v>99608</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.03836431346350665</v>
+        <v>0.03836431346350664</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03172848424256846</v>
+        <v>0.03100016475836136</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04629558825895155</v>
+        <v>0.04590614051309812</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>175</v>
@@ -8292,19 +8292,19 @@
         <v>148310</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>127202</v>
+        <v>126267</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>174921</v>
+        <v>175409</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03372973366292208</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02892907741964211</v>
+        <v>0.02871645978759169</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03978163233738383</v>
+        <v>0.03989268943648458</v>
       </c>
     </row>
     <row r="16">
@@ -8321,19 +8321,19 @@
         <v>35181</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23780</v>
+        <v>23751</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48233</v>
+        <v>49359</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01579578479884292</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01067717630492002</v>
+        <v>0.01066422373094649</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02165605520340531</v>
+        <v>0.02216199278893442</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -8342,19 +8342,19 @@
         <v>42860</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32384</v>
+        <v>32118</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56801</v>
+        <v>55410</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01975301991538625</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01492462650573301</v>
+        <v>0.01480211861682919</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02617780838669757</v>
+        <v>0.02553691414505371</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -8363,19 +8363,19 @@
         <v>78041</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62553</v>
+        <v>63566</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96881</v>
+        <v>97498</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01774857335279771</v>
+        <v>0.01774857335279772</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01422619270337944</v>
+        <v>0.01445659477500724</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02203333540010333</v>
+        <v>0.0221737292358297</v>
       </c>
     </row>
     <row r="17">
@@ -8467,19 +8467,19 @@
         <v>357478</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>329606</v>
+        <v>326286</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>385789</v>
+        <v>386669</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5023677557354281</v>
+        <v>0.502367755735428</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4631981448644277</v>
+        <v>0.4585322867360274</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5421534141316902</v>
+        <v>0.543389253839618</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>447</v>
@@ -8488,19 +8488,19 @@
         <v>330346</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>305469</v>
+        <v>305755</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>354056</v>
+        <v>354738</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4495258825117697</v>
+        <v>0.4495258825117698</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4156735038967551</v>
+        <v>0.4160628843147601</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4817900239290497</v>
+        <v>0.4827175929625281</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>778</v>
@@ -8509,19 +8509,19 @@
         <v>687825</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>646704</v>
+        <v>645654</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>725368</v>
+        <v>724299</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4755214023272259</v>
+        <v>0.4755214023272258</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.447093240709695</v>
+        <v>0.4463670101461663</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5014765218864512</v>
+        <v>0.5007376223873581</v>
       </c>
     </row>
     <row r="19">
@@ -8538,19 +8538,19 @@
         <v>186950</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>160282</v>
+        <v>164692</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>214156</v>
+        <v>215043</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2627221294231074</v>
+        <v>0.2627221294231073</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2252453834257485</v>
+        <v>0.2314438716169974</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3009561520929117</v>
+        <v>0.3022021210975885</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>262</v>
@@ -8559,19 +8559,19 @@
         <v>192251</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>173310</v>
+        <v>172211</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>215265</v>
+        <v>214379</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2616097666225115</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2358354886413672</v>
+        <v>0.2343396293751322</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2929269373009924</v>
+        <v>0.2917207103795175</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>439</v>
@@ -8580,19 +8580,19 @@
         <v>379201</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>348209</v>
+        <v>349017</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>416542</v>
+        <v>417488</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2621569926661924</v>
+        <v>0.2621569926661923</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2407309115522434</v>
+        <v>0.2412898735694465</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2879726946995657</v>
+        <v>0.28862686808001</v>
       </c>
     </row>
     <row r="20">
@@ -8609,19 +8609,19 @@
         <v>110350</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>92118</v>
+        <v>89189</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>132495</v>
+        <v>132041</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1550753507092576</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1294547496308168</v>
+        <v>0.1253386152512821</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1861967046582722</v>
+        <v>0.1855580094079328</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>208</v>
@@ -8630,19 +8630,19 @@
         <v>149831</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>130830</v>
+        <v>132128</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>170517</v>
+        <v>170229</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2038853786547715</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1780302187042743</v>
+        <v>0.1797959416144541</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2320350690579373</v>
+        <v>0.2316429571737278</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>323</v>
@@ -8651,19 +8651,19 @@
         <v>260180</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>232374</v>
+        <v>233146</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>290195</v>
+        <v>288871</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1798733220934897</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1606494338199284</v>
+        <v>0.1611834380807413</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2006239283656717</v>
+        <v>0.1997085734620564</v>
       </c>
     </row>
     <row r="21">
@@ -8680,19 +8680,19 @@
         <v>35528</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25449</v>
+        <v>24821</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50024</v>
+        <v>51354</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04992717227374031</v>
+        <v>0.0499271722737403</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03576338450783508</v>
+        <v>0.03488089633955337</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07029977505590153</v>
+        <v>0.07216862944092454</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>50</v>
@@ -8701,19 +8701,19 @@
         <v>36809</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>26047</v>
+        <v>27089</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>48724</v>
+        <v>50150</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.05008851433922347</v>
+        <v>0.05008851433922346</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03544385555388654</v>
+        <v>0.03686181530452675</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06630252735085176</v>
+        <v>0.0682427204596246</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>87</v>
@@ -8722,19 +8722,19 @@
         <v>72336</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>56650</v>
+        <v>56716</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>88786</v>
+        <v>90002</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.0500091422313767</v>
+        <v>0.05000914223137669</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03916458241918535</v>
+        <v>0.03921022036755407</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06138110618432775</v>
+        <v>0.06222230105437723</v>
       </c>
     </row>
     <row r="22">
@@ -8751,19 +8751,19 @@
         <v>12524</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6641</v>
+        <v>6401</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22641</v>
+        <v>23359</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01759965325777181</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009332960219662673</v>
+        <v>0.008994729009243398</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03181725044976877</v>
+        <v>0.03282732139184209</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -8772,19 +8772,19 @@
         <v>17177</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10802</v>
+        <v>11099</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26451</v>
+        <v>27267</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02337370602504476</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0146990926637373</v>
+        <v>0.01510381579818585</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03599355096109154</v>
+        <v>0.03710477504546104</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -8793,19 +8793,19 @@
         <v>29700</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20387</v>
+        <v>20246</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42796</v>
+        <v>41809</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02053316510606897</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01409402782042544</v>
+        <v>0.01399691725479035</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02958665652275151</v>
+        <v>0.02890450856322573</v>
       </c>
     </row>
     <row r="23">
@@ -8822,19 +8822,19 @@
         <v>8758</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4400</v>
+        <v>4188</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15401</v>
+        <v>16403</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0123079386006948</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00618390315876553</v>
+        <v>0.005885638673660475</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0216434101728379</v>
+        <v>0.02305191721960551</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -8843,19 +8843,19 @@
         <v>8463</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4321</v>
+        <v>4371</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14002</v>
+        <v>13846</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01151675184667892</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005879897762437656</v>
+        <v>0.005947667540491872</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01905366703395453</v>
+        <v>0.01884118256460511</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -8864,19 +8864,19 @@
         <v>17222</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10506</v>
+        <v>10913</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>26438</v>
+        <v>26800</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01190597557564653</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007263211275353256</v>
+        <v>0.007544281956227202</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0182774305503127</v>
+        <v>0.01852793565010489</v>
       </c>
     </row>
     <row r="24">
@@ -8968,19 +8968,19 @@
         <v>1615527</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1545872</v>
+        <v>1552701</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1676566</v>
+        <v>1681793</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4593678104378963</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4395617776842692</v>
+        <v>0.4415033656784764</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4767239453476381</v>
+        <v>0.4782101535276145</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1855</v>
@@ -8989,19 +8989,19 @@
         <v>1378950</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1324886</v>
+        <v>1324639</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1435165</v>
+        <v>1432798</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3702106857856781</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3556958516837772</v>
+        <v>0.3556296053662966</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3853028400148444</v>
+        <v>0.3846673129704117</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3295</v>
@@ -9010,19 +9010,19 @@
         <v>2994477</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2908808</v>
+        <v>2906814</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3084922</v>
+        <v>3084927</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4135093054778048</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4016791234530582</v>
+        <v>0.4014037928120438</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4259988244086252</v>
+        <v>0.4259995636269649</v>
       </c>
     </row>
     <row r="26">
@@ -9039,19 +9039,19 @@
         <v>888681</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>829226</v>
+        <v>831315</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>949589</v>
+        <v>949965</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2526923176054072</v>
+        <v>0.2526923176054073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2357867273488799</v>
+        <v>0.2363805726652412</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2700111689393143</v>
+        <v>0.2701183327295343</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1338</v>
@@ -9060,19 +9060,19 @@
         <v>938709</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>895889</v>
+        <v>891337</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>994432</v>
+        <v>985271</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2520180352797357</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2405217689726101</v>
+        <v>0.2392998039612335</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2669780688424939</v>
+        <v>0.2645184456766381</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2160</v>
@@ -9081,19 +9081,19 @@
         <v>1827390</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1757515</v>
+        <v>1747432</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1903742</v>
+        <v>1909274</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.252345496423175</v>
+        <v>0.2523454964231749</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2426964129244092</v>
+        <v>0.2413040010543256</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2628889703197983</v>
+        <v>0.2636528749952841</v>
       </c>
     </row>
     <row r="27">
@@ -9110,19 +9110,19 @@
         <v>641328</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>592871</v>
+        <v>590908</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>687023</v>
+        <v>691151</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1823588377381537</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1685802563205255</v>
+        <v>0.1680219837847756</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1953518919222553</v>
+        <v>0.1965256156622714</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1333</v>
@@ -9131,19 +9131,19 @@
         <v>861981</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>819468</v>
+        <v>816990</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>908962</v>
+        <v>903866</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2314185124764069</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2200050586891672</v>
+        <v>0.2193397826513838</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2440315242649781</v>
+        <v>0.2426634011954123</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2037</v>
@@ -9152,19 +9152,19 @@
         <v>1503309</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1442290</v>
+        <v>1437170</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1566975</v>
+        <v>1568479</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2075929774224541</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1991667692196934</v>
+        <v>0.198459683196573</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2163845490225614</v>
+        <v>0.2165923059382594</v>
       </c>
     </row>
     <row r="28">
@@ -9181,19 +9181,19 @@
         <v>196930</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>170726</v>
+        <v>170883</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>225192</v>
+        <v>227846</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.05599605750040528</v>
+        <v>0.0559960575004053</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04854518145217368</v>
+        <v>0.04858979634516898</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06403245956077308</v>
+        <v>0.06478703406414534</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>439</v>
@@ -9202,19 +9202,19 @@
         <v>290433</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>261737</v>
+        <v>263820</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>318957</v>
+        <v>319550</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0779734319797918</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07026927576225957</v>
+        <v>0.07082852298677787</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08563119826984526</v>
+        <v>0.08579061170069514</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>659</v>
@@ -9223,19 +9223,19 @@
         <v>487363</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>450010</v>
+        <v>448292</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>530621</v>
+        <v>525343</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06730025265591445</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06214215357723013</v>
+        <v>0.06190491190969133</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07327386017718371</v>
+        <v>0.07254500733515303</v>
       </c>
     </row>
     <row r="29">
@@ -9252,19 +9252,19 @@
         <v>110150</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>89484</v>
+        <v>89127</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>135411</v>
+        <v>133919</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03132058584114961</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02544435259230395</v>
+        <v>0.0253427339705664</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03850361863719514</v>
+        <v>0.0380792219539435</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>262</v>
@@ -9273,19 +9273,19 @@
         <v>173220</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>152073</v>
+        <v>152042</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>198904</v>
+        <v>196741</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04650476462509283</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04082754276482268</v>
+        <v>0.0408190838265251</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0534002954219</v>
+        <v>0.05281956167087143</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>371</v>
@@ -9294,19 +9294,19 @@
         <v>283369</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>255916</v>
+        <v>250400</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>322192</v>
+        <v>315881</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03913065980657387</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03533956540718412</v>
+        <v>0.03457787341689744</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04449165681094799</v>
+        <v>0.04362027508443826</v>
       </c>
     </row>
     <row r="30">
@@ -9323,19 +9323,19 @@
         <v>64233</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48736</v>
+        <v>49135</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>81532</v>
+        <v>82979</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01826439087698782</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01385777062387327</v>
+        <v>0.01397124354341645</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0231831757308439</v>
+        <v>0.02359459397844656</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>118</v>
@@ -9344,19 +9344,19 @@
         <v>81478</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>67189</v>
+        <v>65904</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>98053</v>
+        <v>97062</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0218745698532948</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01803848258608698</v>
+        <v>0.0176933404904982</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02632469850998266</v>
+        <v>0.02605845274841533</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>184</v>
@@ -9365,19 +9365,19 @@
         <v>145711</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>124534</v>
+        <v>125051</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>169555</v>
+        <v>169151</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.02012130821407774</v>
+        <v>0.02012130821407775</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01719699286304186</v>
+        <v>0.01726834401586217</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0234140192169399</v>
+        <v>0.02335812325580338</v>
       </c>
     </row>
     <row r="31">
